--- a/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25108"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F91792-1E3B-4638-9ADF-2D451D58FD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B921ADE-52B5-4AEE-9D8D-8AEF186AFBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,10 @@
     <t>Notes to Carrier</t>
   </si>
   <si>
-    <t>Needs Delivery Note ?</t>
-  </si>
-  <si>
-    <t>Has Attchment ?</t>
+    <t>Needs Delivery Note ?*</t>
+  </si>
+  <si>
+    <t>Has Attchment ?*</t>
   </si>
   <si>
     <t>Original Facility*</t>
@@ -435,7 +435,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,6 +523,11 @@
       <c r="C4" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 G2" xr:uid="{03C6D422-12D3-4BC3-A69A-A586701AAE04}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25122"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B921ADE-52B5-4AEE-9D8D-8AEF186AFBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{688F16BD-804C-4E07-A8B4-E35A593AEBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,16 +53,16 @@
     <t>Original Facility*</t>
   </si>
   <si>
+    <t>Destination Facility*</t>
+  </si>
+  <si>
     <t>Sender*</t>
   </si>
   <si>
-    <t>Destination Facility*</t>
-  </si>
-  <si>
     <t>Receiver*</t>
   </si>
   <si>
-    <t>08/29/2021</t>
+    <t>03/19/2022</t>
   </si>
   <si>
     <t>yes</t>
@@ -70,16 +71,16 @@
     <t>no</t>
   </si>
   <si>
-    <t>kkkk</t>
-  </si>
-  <si>
-    <t>Esraa</t>
-  </si>
-  <si>
-    <t>testTas</t>
-  </si>
-  <si>
-    <t>recTas</t>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>sender11</t>
+  </si>
+  <si>
+    <t>rec12</t>
   </si>
 </sst>
 </file>
@@ -435,7 +436,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -447,8 +448,8 @@
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -489,7 +490,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>

--- a/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25122"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{688F16BD-804C-4E07-A8B4-E35A593AEBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86C6EDE2-5BDD-4B29-A44F-959BFE41EA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <t>Needs Delivery Note ?*</t>
   </si>
   <si>
-    <t>Has Attchment ?*</t>
+    <t>Has Attachment ?*</t>
   </si>
   <si>
     <t>Original Facility*</t>
@@ -436,7 +436,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25122"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86C6EDE2-5BDD-4B29-A44F-959BFE41EA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B9B772-7D37-4896-B2BB-0FA86DDFFAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Reference No</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Receiver*</t>
-  </si>
-  <si>
-    <t>03/19/2022</t>
   </si>
   <si>
     <t>yes</t>
@@ -87,6 +84,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1010000]m/d/yyyy;@"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -116,9 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +439,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -490,29 +493,29 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44640</v>
       </c>
       <c r="C2" s="1"/>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">

--- a/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B9B772-7D37-4896-B2BB-0FA86DDFFAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tachyon_13062022\tachyon-core\angular\src\assets\sampleFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5641BA40-6F64-472D-8BAA-EE514E1FF214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$2</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -27,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Reference No</t>
   </si>
   <si>
-    <t>Trip Pick up Date Start *</t>
-  </si>
-  <si>
-    <t>Trip Pick up Date End</t>
-  </si>
-  <si>
     <t>Approximate Total Value of Goods</t>
   </si>
   <si>
@@ -68,16 +68,25 @@
     <t>no</t>
   </si>
   <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>test12</t>
-  </si>
-  <si>
-    <t>sender11</t>
-  </si>
-  <si>
-    <t>rec12</t>
+    <t>pickup 3</t>
+  </si>
+  <si>
+    <t>drop 1</t>
+  </si>
+  <si>
+    <t>2022/06/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pickup agent 1 </t>
+  </si>
+  <si>
+    <t>Trip Pick up Date Start MM/dd/YYYY (Text Format) *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip Pick up Date End  MM/dd/YYYY (Text Format) </t>
   </si>
 </sst>
 </file>
@@ -85,9 +94,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1010000]m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,10 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -436,102 +446,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.21875" customWidth="1"/>
+    <col min="3" max="3" width="54.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44640</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="1"/>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 G2" xr:uid="{03C6D422-12D3-4BC3-A69A-A586701AAE04}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B9B772-7D37-4896-B2BB-0FA86DDFFAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6838324-19BF-4CDE-9E11-E75AE5239120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,73 +27,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Reference No</t>
-  </si>
-  <si>
-    <t>Trip Pick up Date Start *</t>
-  </si>
-  <si>
-    <t>Trip Pick up Date End</t>
-  </si>
-  <si>
-    <t>Approximate Total Value of Goods</t>
-  </si>
-  <si>
-    <t>Notes to Carrier</t>
-  </si>
-  <si>
-    <t>Needs Delivery Note ?*</t>
-  </si>
-  <si>
-    <t>Has Attachment ?*</t>
-  </si>
-  <si>
-    <t>Original Facility*</t>
-  </si>
-  <si>
-    <t>Destination Facility*</t>
-  </si>
-  <si>
-    <t>Sender*</t>
-  </si>
-  <si>
-    <t>Receiver*</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>test12</t>
-  </si>
-  <si>
-    <t>sender11</t>
-  </si>
-  <si>
-    <t>rec12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Reference No  رقم الرحلة</t>
+  </si>
+  <si>
+    <t>Trip Pick up Date Start MM/dd/yyyy (Text Format)   تاريخ بداية الرحلة</t>
+  </si>
+  <si>
+    <t>Trip Pick up Date End MM/dd/yyyy (Text Format)   تاريخ نهاية الرحلة</t>
+  </si>
+  <si>
+    <t>Approximate Total Value of Goods    المجموع الكلي للبضائع</t>
+  </si>
+  <si>
+    <t>Notes to Carrier   ملاخظات للناقل</t>
+  </si>
+  <si>
+    <t>Needs Delivery Note ?* ملاحظات تسليم ؟</t>
+  </si>
+  <si>
+    <t>Has Attachment ?* مرفق ملفات ؟</t>
+  </si>
+  <si>
+    <t>Original Facility* منطفة الانطلاق</t>
+  </si>
+  <si>
+    <t>Destination Facility*   منطقة التسليم</t>
+  </si>
+  <si>
+    <t>Sender* المرسل</t>
+  </si>
+  <si>
+    <t>Receiver*  المستقبل</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1010000]m/d/yyyy;@"/>
-  </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,12 +101,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,99 +426,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="9" width="36.28515625" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44640</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" ht="15" customHeight="1">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" ht="15" customHeight="1">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" ht="15" customHeight="1">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" ht="15" customHeight="1">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" ht="15" customHeight="1"/>
+    <row r="22" spans="2:2" ht="15" customHeight="1"/>
+    <row r="23" spans="2:2" ht="15" customHeight="1"/>
+    <row r="24" spans="2:2" ht="15" customHeight="1"/>
+    <row r="25" spans="2:2" ht="15" customHeight="1"/>
+    <row r="26" spans="2:2" ht="15" customHeight="1"/>
+    <row r="27" spans="2:2" ht="15" customHeight="1"/>
+    <row r="28" spans="2:2" ht="15" customHeight="1"/>
+    <row r="29" spans="2:2" ht="15" customHeight="1"/>
+    <row r="30" spans="2:2" ht="15" customHeight="1"/>
+    <row r="31" spans="2:2" ht="15" customHeight="1"/>
+    <row r="32" spans="2:2" ht="15" customHeight="1"/>
+    <row r="33" ht="15" customHeight="1"/>
+    <row r="34" ht="15" customHeight="1"/>
+    <row r="35" ht="15" customHeight="1"/>
+    <row r="36" ht="15" customHeight="1"/>
+    <row r="37" ht="15" customHeight="1"/>
+    <row r="38" ht="15" customHeight="1"/>
+    <row r="39" ht="15" customHeight="1"/>
+    <row r="40" ht="15" customHeight="1"/>
+    <row r="41" ht="15" customHeight="1"/>
+    <row r="42" ht="15" customHeight="1"/>
+    <row r="43" ht="15" customHeight="1"/>
+    <row r="44" ht="15" customHeight="1"/>
+    <row r="45" ht="15" customHeight="1"/>
+    <row r="46" ht="15" customHeight="1"/>
+    <row r="47" ht="15" customHeight="1"/>
+    <row r="48" ht="15" customHeight="1"/>
+    <row r="49" ht="15" customHeight="1"/>
+    <row r="50" ht="15" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 G2" xr:uid="{03C6D422-12D3-4BC3-A69A-A586701AAE04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 F1:F1048576" xr:uid="{283B2456-5D55-4F2F-AB66-F4448E09FF50}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>

--- a/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25428"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6838324-19BF-4CDE-9E11-E75AE5239120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F0934E-371F-4919-9009-7BE736A3FC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Reference No  رقم الرحلة</t>
+    <t>Reference No *  رقم الرحلة</t>
   </si>
   <si>
     <t>Trip Pick up Date Start MM/dd/yyyy (Text Format)   تاريخ بداية الرحلة</t>
@@ -41,7 +41,7 @@
     <t>Approximate Total Value of Goods    المجموع الكلي للبضائع</t>
   </si>
   <si>
-    <t>Notes to Carrier   ملاخظات للناقل</t>
+    <t>Notes to Carrier   ملاحظات للناقل</t>
   </si>
   <si>
     <t>Needs Delivery Note ?* ملاحظات تسليم ؟</t>
@@ -50,7 +50,7 @@
     <t>Has Attachment ?* مرفق ملفات ؟</t>
   </si>
   <si>
-    <t>Original Facility* منطفة الانطلاق</t>
+    <t>Original Facility* منطقة الانطلاق</t>
   </si>
   <si>
     <t>Destination Facility*   منطقة التسليم</t>
@@ -429,13 +429,15 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="4" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
     <col min="6" max="9" width="36.28515625" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" customWidth="1"/>

--- a/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25428"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25510"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F0934E-371F-4919-9009-7BE736A3FC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0DF55CE-45A4-4AEA-8253-C995F405E916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,10 +32,10 @@
     <t>Reference No *  رقم الرحلة</t>
   </si>
   <si>
-    <t>Trip Pick up Date Start MM/dd/yyyy (Text Format)   تاريخ بداية الرحلة</t>
-  </si>
-  <si>
-    <t>Trip Pick up Date End MM/dd/yyyy (Text Format)   تاريخ نهاية الرحلة</t>
+    <t>Trip Pick up Date Start yyyy/MM/dd (Text Format)   تاريخ بداية الرحلة</t>
+  </si>
+  <si>
+    <t>Trip Pick up Date End yyyy/MM/dd (Text Format)   تاريخ نهاية الرحلة</t>
   </si>
   <si>
     <t>Approximate Total Value of Goods    المجموع الكلي للبضائع</t>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -111,7 +111,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,15 +427,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" customWidth="1"/>
-    <col min="3" max="3" width="57.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
     <col min="6" max="9" width="36.28515625" customWidth="1"/>
@@ -448,10 +447,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -485,11 +484,11 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="B5" s="4"/>
@@ -518,39 +517,25 @@
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" ht="15" customHeight="1">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" ht="15" customHeight="1">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" ht="15" customHeight="1">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" ht="15" customHeight="1">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" ht="15" customHeight="1"/>
-    <row r="22" spans="2:2" ht="15" customHeight="1"/>
-    <row r="23" spans="2:2" ht="15" customHeight="1"/>
-    <row r="24" spans="2:2" ht="15" customHeight="1"/>
-    <row r="25" spans="2:2" ht="15" customHeight="1"/>
-    <row r="26" spans="2:2" ht="15" customHeight="1"/>
-    <row r="27" spans="2:2" ht="15" customHeight="1"/>
-    <row r="28" spans="2:2" ht="15" customHeight="1"/>
-    <row r="29" spans="2:2" ht="15" customHeight="1"/>
-    <row r="30" spans="2:2" ht="15" customHeight="1"/>
-    <row r="31" spans="2:2" ht="15" customHeight="1"/>
-    <row r="32" spans="2:2" ht="15" customHeight="1"/>
+    <row r="14" spans="1:11" ht="15" customHeight="1"/>
+    <row r="15" spans="1:11" ht="15" customHeight="1"/>
+    <row r="16" spans="1:11" ht="15" customHeight="1"/>
+    <row r="17" ht="15" customHeight="1"/>
+    <row r="18" ht="15" customHeight="1"/>
+    <row r="19" ht="15" customHeight="1"/>
+    <row r="20" ht="15" customHeight="1"/>
+    <row r="21" ht="15" customHeight="1"/>
+    <row r="22" ht="15" customHeight="1"/>
+    <row r="23" ht="15" customHeight="1"/>
+    <row r="24" ht="15" customHeight="1"/>
+    <row r="25" ht="15" customHeight="1"/>
+    <row r="26" ht="15" customHeight="1"/>
+    <row r="27" ht="15" customHeight="1"/>
+    <row r="28" ht="15" customHeight="1"/>
+    <row r="29" ht="15" customHeight="1"/>
+    <row r="30" ht="15" customHeight="1"/>
+    <row r="31" ht="15" customHeight="1"/>
+    <row r="32" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>

--- a/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportSingleDropShipmentSampleFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25510"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0DF55CE-45A4-4AEA-8253-C995F405E916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D686914-3FA8-409D-B4A2-08FD304DB498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,44 +29,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Reference No *  رقم الرحلة</t>
-  </si>
-  <si>
-    <t>Trip Pick up Date Start yyyy/MM/dd (Text Format)   تاريخ بداية الرحلة</t>
-  </si>
-  <si>
-    <t>Trip Pick up Date End yyyy/MM/dd (Text Format)   تاريخ نهاية الرحلة</t>
-  </si>
-  <si>
-    <t>Approximate Total Value of Goods    المجموع الكلي للبضائع</t>
-  </si>
-  <si>
-    <t>Notes to Carrier   ملاحظات للناقل</t>
-  </si>
-  <si>
-    <t>Needs Delivery Note ?* ملاحظات تسليم ؟</t>
-  </si>
-  <si>
-    <t>Has Attachment ?* مرفق ملفات ؟</t>
-  </si>
-  <si>
-    <t>Original Facility* منطقة الانطلاق</t>
-  </si>
-  <si>
-    <t>Destination Facility*   منطقة التسليم</t>
-  </si>
-  <si>
-    <t>Sender* المرسل</t>
-  </si>
-  <si>
-    <t>Receiver*  المستقبل</t>
+    <t>Trip Reference No *  
+الرقم المرجعي للرحلة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick-up date start  (yyyy/MM/dd)
+تاريخ بداية التحميل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick-up date end  (yyyy/MM/dd)
+تاريخ نهاية التحميل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximate total value of goods
+القيمة التقريبة للبضاعة </t>
+  </si>
+  <si>
+    <t>Shipper notes
+ملاحظات الشاحن</t>
+  </si>
+  <si>
+    <t>Needs delivery note?
+بحاجة إلى مذكرة تسليم؟</t>
+  </si>
+  <si>
+    <t>Has attachment?
+هل يوجد مرفقات ؟</t>
+  </si>
+  <si>
+    <t>Pick-up facility*
+منشأة التحميل</t>
+  </si>
+  <si>
+    <t>Drop-off facility*
+منشأة التنزيل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sender name*
+اسم المرسل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reciver name*
+اسم المستلم </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,7 +86,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,20 +127,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection sqref="A1:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -443,14 +493,14 @@
     <col min="11" max="11" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="25.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -478,64 +528,124 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1"/>
-    <row r="15" spans="1:11" ht="15" customHeight="1"/>
-    <row r="16" spans="1:11" ht="15" customHeight="1"/>
-    <row r="17" ht="15" customHeight="1"/>
-    <row r="18" ht="15" customHeight="1"/>
-    <row r="19" ht="15" customHeight="1"/>
-    <row r="20" ht="15" customHeight="1"/>
-    <row r="21" ht="15" customHeight="1"/>
-    <row r="22" ht="15" customHeight="1"/>
-    <row r="23" ht="15" customHeight="1"/>
-    <row r="24" ht="15" customHeight="1"/>
-    <row r="25" ht="15" customHeight="1"/>
-    <row r="26" ht="15" customHeight="1"/>
-    <row r="27" ht="15" customHeight="1"/>
-    <row r="28" ht="15" customHeight="1"/>
-    <row r="29" ht="15" customHeight="1"/>
-    <row r="30" ht="15" customHeight="1"/>
-    <row r="31" ht="15" customHeight="1"/>
-    <row r="32" ht="15" customHeight="1"/>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="2:3" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="2:3" ht="15" customHeight="1"/>
+    <row r="32" spans="2:3" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
@@ -556,7 +666,7 @@
     <row r="50" ht="15" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 F1:F1048576" xr:uid="{283B2456-5D55-4F2F-AB66-F4448E09FF50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{283B2456-5D55-4F2F-AB66-F4448E09FF50}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
